--- a/zazicFacilities.xlsx
+++ b/zazicFacilities.xlsx
@@ -972,14 +972,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,13 +1445,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1467,118 +1463,115 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1586,7 +1579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2123,10 +2116,14 @@
   <dimension ref="A1:G147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <cols>
+    <col min="4" max="4" width="18.8888888888889" customWidth="1"/>
+    <col min="5" max="5" width="27.8888888888889" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">

--- a/zazicFacilities.xlsx
+++ b/zazicFacilities.xlsx
@@ -1727,8 +1727,8 @@
   <sheetPr/>
   <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C161" sqref="C161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/zazicFacilities.xlsx
+++ b/zazicFacilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="8700"/>
+    <workbookView windowWidth="17771" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="223">
   <si>
     <t>field: Partner</t>
   </si>
@@ -564,6 +564,138 @@
   </si>
   <si>
     <t>Mnene Hospital</t>
+  </si>
+  <si>
+    <t>Karoi District Hospital</t>
+  </si>
+  <si>
+    <t>KAROI - 100715 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>Moy Clinic</t>
+  </si>
+  <si>
+    <t>Lynx Mine Clinic</t>
+  </si>
+  <si>
+    <t>Nyamakate Clinic</t>
+  </si>
+  <si>
+    <t>Makuti Clinic</t>
+  </si>
+  <si>
+    <t>Mana pools Clinic</t>
+  </si>
+  <si>
+    <t>Chirundu Clinic</t>
+  </si>
+  <si>
+    <t>Helywin Clinic</t>
+  </si>
+  <si>
+    <t>Karuru Clinic</t>
+  </si>
+  <si>
+    <t>Zebra downs Clinic</t>
+  </si>
+  <si>
+    <t>Nyangoma Clinic</t>
+  </si>
+  <si>
+    <t>Kasimure Clinic</t>
+  </si>
+  <si>
+    <t>Mobile</t>
+  </si>
+  <si>
+    <t>Hurungwe Rural Hospital</t>
+  </si>
+  <si>
+    <t>HURUNGWE - 100619 - RURAL HOSPITAL</t>
+  </si>
+  <si>
+    <t>Masanga clinic</t>
+  </si>
+  <si>
+    <t>Doro clinicLanlory Clinic</t>
+  </si>
+  <si>
+    <t>Hesketh clinic</t>
+  </si>
+  <si>
+    <t>Murambi clinic</t>
+  </si>
+  <si>
+    <t>Beaugest clinic</t>
+  </si>
+  <si>
+    <t>Chidamoyo Mission Hospital</t>
+  </si>
+  <si>
+    <t>CHIDAMOYO - 100169 - MISSION HOSPITAL</t>
+  </si>
+  <si>
+    <t>Zvipani Clinic</t>
+  </si>
+  <si>
+    <t>Deve Clinic</t>
+  </si>
+  <si>
+    <t>Chiroti Clinic</t>
+  </si>
+  <si>
+    <t>Sanyati bridge Clinic</t>
+  </si>
+  <si>
+    <t>Kapfunde Clinic</t>
+  </si>
+  <si>
+    <t>Chinhere clinic</t>
+  </si>
+  <si>
+    <t>Chivende clinic</t>
+  </si>
+  <si>
+    <t>Tengwe Clinic</t>
+  </si>
+  <si>
+    <t>TENGWE - 101886 - CLINIC</t>
+  </si>
+  <si>
+    <t>Masikati</t>
+  </si>
+  <si>
+    <t>Chimusimbe</t>
+  </si>
+  <si>
+    <t>Murambi</t>
+  </si>
+  <si>
+    <t>Mazhake</t>
+  </si>
+  <si>
+    <t>Mwami Hospital</t>
+  </si>
+  <si>
+    <t>MWAMI - 101194 - HOSPITAL</t>
+  </si>
+  <si>
+    <t>Dete Clinic</t>
+  </si>
+  <si>
+    <t>Kazangarare Clinic</t>
+  </si>
+  <si>
+    <t>Mashongwe Clinic</t>
+  </si>
+  <si>
+    <t>Chundu Clinic</t>
+  </si>
+  <si>
+    <t>Nyama Clinic</t>
+  </si>
+  <si>
+    <t>Chibara Clinic</t>
   </si>
 </sst>
 </file>
@@ -576,7 +708,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -589,6 +721,26 @@
       <color rgb="FF343A40"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF343A40"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.25"/>
+      <color rgb="FF343A40"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1055,143 +1207,148 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1725,10 +1882,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="H195" sqref="H195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4492,6 +4649,737 @@
         <v>15</v>
       </c>
     </row>
+    <row r="163" ht="15" spans="1:5">
+      <c r="A163" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" ht="15" spans="1:5">
+      <c r="A164" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" ht="15" spans="1:5">
+      <c r="A165" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" ht="15" spans="1:5">
+      <c r="A166" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" ht="15" spans="1:5">
+      <c r="A167" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" ht="15" spans="1:5">
+      <c r="A168" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" ht="15" spans="1:5">
+      <c r="A169" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" ht="15" spans="1:5">
+      <c r="A170" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C170" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" ht="15" spans="1:5">
+      <c r="A171" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" ht="15" spans="1:5">
+      <c r="A172" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" ht="15" spans="1:5">
+      <c r="A173" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" ht="15" spans="1:5">
+      <c r="A174" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" ht="15" spans="1:5">
+      <c r="A175" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" ht="15" spans="1:5">
+      <c r="A176" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" ht="15" spans="1:5">
+      <c r="A177" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" ht="15" spans="1:5">
+      <c r="A178" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" ht="15" spans="1:5">
+      <c r="A179" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" ht="15" spans="1:5">
+      <c r="A180" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" ht="15" spans="1:5">
+      <c r="A181" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" ht="15" spans="1:5">
+      <c r="A182" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" ht="15" spans="1:5">
+      <c r="A183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" ht="15" spans="1:5">
+      <c r="A184" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" ht="15" spans="1:5">
+      <c r="A185" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" ht="15" spans="1:5">
+      <c r="A186" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" ht="15" spans="1:5">
+      <c r="A187" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" ht="15" spans="1:5">
+      <c r="A188" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" ht="15" spans="1:5">
+      <c r="A189" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" ht="15" spans="1:5">
+      <c r="A190" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" ht="15" spans="1:5">
+      <c r="A191" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" ht="15" spans="1:5">
+      <c r="A192" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" ht="15" spans="1:5">
+      <c r="A193" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="194" ht="15" spans="1:5">
+      <c r="A194" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" ht="15" spans="1:5">
+      <c r="A195" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" ht="15" spans="1:5">
+      <c r="A196" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" ht="15" spans="1:5">
+      <c r="A197" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" ht="15" spans="1:5">
+      <c r="A198" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" ht="15" spans="1:5">
+      <c r="A199" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" ht="15" spans="1:5">
+      <c r="A200" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E200" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" ht="15" spans="1:5">
+      <c r="A201" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E201" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" ht="15" spans="1:5">
+      <c r="A202" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E202" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" ht="15" spans="1:5">
+      <c r="A203" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E203" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" ht="15" spans="1:5">
+      <c r="A204" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E204" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" ht="15" spans="1:5">
+      <c r="A205" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="E205" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/zazicFacilities.xlsx
+++ b/zazicFacilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17771" windowHeight="8760"/>
+    <workbookView windowWidth="22188" windowHeight="8700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -708,7 +708,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -721,13 +721,6 @@
       <color rgb="FF343A40"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11.25"/>
@@ -1207,13 +1200,16 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1222,122 +1218,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,10 +1338,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1885,7 +1876,7 @@
   <dimension ref="A1:E205"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="H195" sqref="H195"/>
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -4650,733 +4641,733 @@
       </c>
     </row>
     <row r="163" ht="15" spans="1:5">
-      <c r="A163" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B163" s="4" t="s">
+      <c r="A163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C163" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E163" s="4" t="s">
+      <c r="E163" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="164" ht="15" spans="1:5">
-      <c r="A164" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B164" s="4" t="s">
+      <c r="A164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C164" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E164" s="4" t="s">
+      <c r="E164" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="165" ht="15" spans="1:5">
-      <c r="A165" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B165" s="4" t="s">
+      <c r="A165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E165" s="4" t="s">
+      <c r="E165" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="166" ht="15" spans="1:5">
-      <c r="A166" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B166" s="4" t="s">
+      <c r="A166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E166" s="4" t="s">
+      <c r="E166" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="167" ht="15" spans="1:5">
-      <c r="A167" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B167" s="4" t="s">
+      <c r="A167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E167" s="4" t="s">
+      <c r="E167" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="168" ht="15" spans="1:5">
-      <c r="A168" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="4" t="s">
+      <c r="A168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E168" s="4" t="s">
+      <c r="E168" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="169" ht="15" spans="1:5">
-      <c r="A169" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B169" s="4" t="s">
+      <c r="A169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E169" s="4" t="s">
+      <c r="E169" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="170" ht="15" spans="1:5">
-      <c r="A170" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B170" s="4" t="s">
+      <c r="A170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E170" s="4" t="s">
+      <c r="E170" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="171" ht="15" spans="1:5">
-      <c r="A171" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B171" s="4" t="s">
+      <c r="A171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E171" s="4" t="s">
+      <c r="E171" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="172" ht="15" spans="1:5">
-      <c r="A172" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B172" s="4" t="s">
+      <c r="A172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E172" s="4" t="s">
+      <c r="E172" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="173" ht="15" spans="1:5">
-      <c r="A173" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B173" s="4" t="s">
+      <c r="A173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E173" s="4" t="s">
+      <c r="E173" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="174" ht="15" spans="1:5">
-      <c r="A174" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="4" t="s">
+      <c r="A174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E174" s="4" t="s">
+      <c r="E174" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="175" ht="15" spans="1:5">
-      <c r="A175" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B175" s="4" t="s">
+      <c r="A175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C175" s="4" t="s">
+      <c r="C175" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E175" s="4" t="s">
+      <c r="E175" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="176" ht="15" spans="1:5">
-      <c r="A176" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B176" s="4" t="s">
+      <c r="A176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C176" s="4" t="s">
+      <c r="C176" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D176" s="7" t="s">
+      <c r="D176" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E176" s="4" t="s">
+      <c r="E176" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="177" ht="15" spans="1:5">
-      <c r="A177" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B177" s="4" t="s">
+      <c r="A177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E177" s="4" t="s">
+      <c r="E177" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="178" ht="15" spans="1:5">
-      <c r="A178" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B178" s="4" t="s">
+      <c r="A178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D178" s="7" t="s">
+      <c r="D178" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E178" s="4" t="s">
+      <c r="E178" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="179" ht="15" spans="1:5">
-      <c r="A179" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="4" t="s">
+      <c r="A179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="D179" s="7" t="s">
+      <c r="D179" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E179" s="4" t="s">
+      <c r="E179" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="180" ht="15" spans="1:5">
-      <c r="A180" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B180" s="4" t="s">
+      <c r="A180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D180" s="7" t="s">
+      <c r="D180" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E180" s="4" t="s">
+      <c r="E180" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="181" ht="15" spans="1:5">
-      <c r="A181" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B181" s="4" t="s">
+      <c r="A181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D181" s="7" t="s">
+      <c r="D181" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E181" s="4" t="s">
+      <c r="E181" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="182" ht="15" spans="1:5">
-      <c r="A182" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B182" s="4" t="s">
+      <c r="A182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D182" s="7" t="s">
+      <c r="D182" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="E182" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="183" ht="15" spans="1:5">
-      <c r="A183" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B183" s="4" t="s">
+      <c r="A183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C183" s="4" t="s">
+      <c r="C183" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E183" s="4" t="s">
+      <c r="E183" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="184" ht="15" spans="1:5">
-      <c r="A184" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B184" s="4" t="s">
+      <c r="A184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E184" s="4" t="s">
+      <c r="E184" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="185" ht="15" spans="1:5">
-      <c r="A185" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B185" s="4" t="s">
+      <c r="A185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E185" s="4" t="s">
+      <c r="E185" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="186" ht="15" spans="1:5">
-      <c r="A186" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B186" s="4" t="s">
+      <c r="A186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E186" s="4" t="s">
+      <c r="E186" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="187" ht="15" spans="1:5">
-      <c r="A187" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B187" s="4" t="s">
+      <c r="A187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E187" s="4" t="s">
+      <c r="E187" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="188" ht="15" spans="1:5">
-      <c r="A188" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B188" s="4" t="s">
+      <c r="A188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E188" s="4" t="s">
+      <c r="E188" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="189" ht="15" spans="1:5">
-      <c r="A189" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B189" s="4" t="s">
+      <c r="A189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E189" s="4" t="s">
+      <c r="E189" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="190" ht="15" spans="1:5">
-      <c r="A190" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B190" s="4" t="s">
+      <c r="A190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E190" s="4" t="s">
+      <c r="E190" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="191" ht="15" spans="1:5">
-      <c r="A191" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B191" s="4" t="s">
+      <c r="A191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E191" s="4" t="s">
+      <c r="E191" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="192" ht="15" spans="1:5">
-      <c r="A192" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B192" s="4" t="s">
+      <c r="A192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E192" s="4" t="s">
+      <c r="E192" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="193" ht="15" spans="1:5">
-      <c r="A193" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B193" s="4" t="s">
+      <c r="A193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C193" s="8" t="s">
+      <c r="C193" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E193" s="4" t="s">
+      <c r="E193" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="194" ht="15" spans="1:5">
-      <c r="A194" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B194" s="4" t="s">
+      <c r="A194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C194" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E194" s="4" t="s">
+      <c r="E194" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="195" ht="15" spans="1:5">
-      <c r="A195" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B195" s="4" t="s">
+      <c r="A195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E195" s="4" t="s">
+      <c r="E195" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="196" ht="15" spans="1:5">
-      <c r="A196" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B196" s="4" t="s">
+      <c r="A196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E196" s="4" t="s">
+      <c r="E196" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="197" ht="15" spans="1:5">
-      <c r="A197" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B197" s="4" t="s">
+      <c r="A197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E197" s="4" t="s">
+      <c r="E197" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="198" ht="15" spans="1:5">
-      <c r="A198" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B198" s="4" t="s">
+      <c r="A198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C198" s="4" t="s">
+      <c r="C198" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E198" s="4" t="s">
+      <c r="E198" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="199" ht="15" spans="1:5">
-      <c r="A199" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B199" s="4" t="s">
+      <c r="A199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C199" s="4" t="s">
+      <c r="C199" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E199" s="4" t="s">
+      <c r="E199" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="200" ht="15" spans="1:5">
-      <c r="A200" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B200" s="4" t="s">
+      <c r="A200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E200" s="4" t="s">
+      <c r="E200" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="201" ht="15" spans="1:5">
-      <c r="A201" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B201" s="4" t="s">
+      <c r="A201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D201" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E201" s="4" t="s">
+      <c r="E201" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="202" ht="15" spans="1:5">
-      <c r="A202" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B202" s="4" t="s">
+      <c r="A202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E202" s="4" t="s">
+      <c r="E202" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="203" ht="15" spans="1:5">
-      <c r="A203" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B203" s="4" t="s">
+      <c r="A203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C203" s="6" t="s">
+      <c r="C203" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D203" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E203" s="4" t="s">
+      <c r="E203" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="204" ht="15" spans="1:5">
-      <c r="A204" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B204" s="4" t="s">
+      <c r="A204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C204" s="6" t="s">
+      <c r="C204" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E204" s="4" t="s">
+      <c r="E204" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="205" ht="15" spans="1:5">
-      <c r="A205" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B205" s="4" t="s">
+      <c r="A205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C205" s="6" t="s">
+      <c r="C205" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E205" s="4" t="s">
+      <c r="E205" s="1" t="s">
         <v>18</v>
       </c>
     </row>

--- a/zazicFacilities.xlsx
+++ b/zazicFacilities.xlsx
@@ -1875,8 +1875,8 @@
   <sheetPr/>
   <dimension ref="A1:E205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
